--- a/medicine/Enfance/Bébés_noirs/Bébés_noirs.xlsx
+++ b/medicine/Enfance/Bébés_noirs/Bébés_noirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9b%C3%A9s_noirs</t>
+          <t>Bébés_noirs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le phénomène des bébés noirs est un phénomène de délinquance juvénile en République du Congo. Il s'agit généralement de jeunes âgés entre 13 et 25 ans[1], munis d'armes blanches (en particulier de machette) qui violent, mutilent et tuent[2] les populations. Désœuvrés et déscolarisés, ces jeunes provoquent une grande inquiétude au sein de la population[3]. Ils agissent toujours en bande. Ils ont été qualifiés de terroristes par André Ngakala Oko, le procureur de la République près le tribunal de grande instance de Brazzaville[4].
-Ce phénomène aurait commencé en 2014 à la suite de l'opération Mbata ya bakolo qui a permis d'expulser les ressortissants sans papier de la République démocratique du Congo voisine[5]. Préoccupation majeure des autorités congolaises depuis plusieurs années, plusieurs compagnes et mesures ont été lancées afin de l'éradiquer. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le phénomène des bébés noirs est un phénomène de délinquance juvénile en République du Congo. Il s'agit généralement de jeunes âgés entre 13 et 25 ans, munis d'armes blanches (en particulier de machette) qui violent, mutilent et tuent les populations. Désœuvrés et déscolarisés, ces jeunes provoquent une grande inquiétude au sein de la population. Ils agissent toujours en bande. Ils ont été qualifiés de terroristes par André Ngakala Oko, le procureur de la République près le tribunal de grande instance de Brazzaville.
+Ce phénomène aurait commencé en 2014 à la suite de l'opération Mbata ya bakolo qui a permis d'expulser les ressortissants sans papier de la République démocratique du Congo voisine. Préoccupation majeure des autorités congolaises depuis plusieurs années, plusieurs compagnes et mesures ont été lancées afin de l'éradiquer. 
 </t>
         </is>
       </c>
